--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Vipin</t>
   </si>
@@ -32,60 +32,6 @@
   </si>
   <si>
     <t>INC1243672</t>
-  </si>
-  <si>
-    <t>INC1366730</t>
-  </si>
-  <si>
-    <t>INC1261732</t>
-  </si>
-  <si>
-    <t>INC1243640</t>
-  </si>
-  <si>
-    <t>INC1356492</t>
-  </si>
-  <si>
-    <t>INC1253738</t>
-  </si>
-  <si>
-    <t>INC1236508</t>
-  </si>
-  <si>
-    <t>INC1348113</t>
-  </si>
-  <si>
-    <t>INC1251649</t>
-  </si>
-  <si>
-    <t>INC1198450</t>
-  </si>
-  <si>
-    <t>INC1347177</t>
-  </si>
-  <si>
-    <t>INC1243749</t>
-  </si>
-  <si>
-    <t>INC1168143</t>
-  </si>
-  <si>
-    <t>INC1338029</t>
-  </si>
-  <si>
-    <t>INC1243685</t>
-  </si>
-  <si>
-    <t>INC1084451</t>
-  </si>
-  <si>
-    <t>INC1283798</t>
-  </si>
-  <si>
-    <t>INC1243684</t>
-  </si>
-  <si>
-    <t>INC0406195</t>
   </si>
 </sst>
 </file>
@@ -452,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F5:H12"/>
+  <dimension ref="F5:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,72 +428,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
